--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -24,7 +24,14 @@
   <x:numFmts count="1">
     <x:numFmt numFmtId="0" formatCode=""/>
   </x:numFmts>
-  <x:fonts count="1">
+  <x:fonts count="2">
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
     <x:font>
       <x:vertAlign val="baseline"/>
       <x:sz val="11"/>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -374,7 +374,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="B2" sqref="B2 B2:B2"/>
     </x:sheetView>
   </x:sheetViews>
@@ -399,7 +399,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:E5"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="A2" sqref="A2 A2:A2 A2:XFD2 A4:XFD4 A5:XFD5 B1:B1048576 D1:D1048576 E1:E1048576"/>
     </x:sheetView>
   </x:sheetViews>
@@ -440,7 +440,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:B2"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="0" workbookViewId="0">
+    <x:sheetView workbookViewId="0">
       <x:selection activeCell="B2" sqref="B2 B2:B2 D2:E2 C3:C3 D4:E5"/>
     </x:sheetView>
   </x:sheetViews>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -68,12 +68,12 @@
     </x:border>
   </x:borders>
   <x:cellStyleXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
   <x:cellXfs count="1">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0" applyProtection="1">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>

--- a/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
+++ b/ClosedXML/ClosedXML/ClosedXML_Tests/Resource/Examples/Ranges/SelectingRanges.xlsx
@@ -380,9 +380,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:2">
-      <x:c r="B2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:2"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -408,22 +406,9 @@
     <x:col min="1" max="5" width="9.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="2" spans="1:5">
-      <x:c r="A2" s="0" t="s"/>
-      <x:c r="B2" s="0" t="s"/>
-      <x:c r="D2" s="0" t="s"/>
-      <x:c r="E2" s="0" t="s"/>
-    </x:row>
-    <x:row r="4" spans="1:5">
-      <x:c r="B4" s="0" t="s"/>
-      <x:c r="D4" s="0" t="s"/>
-      <x:c r="E4" s="0" t="s"/>
-    </x:row>
-    <x:row r="5" spans="1:5">
-      <x:c r="B5" s="0" t="s"/>
-      <x:c r="D5" s="0" t="s"/>
-      <x:c r="E5" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:5"/>
+    <x:row r="4" spans="1:5"/>
+    <x:row r="5" spans="1:5"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
@@ -446,9 +431,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:2">
-      <x:c r="B2" s="0" t="s"/>
-    </x:row>
+    <x:row r="2" spans="1:2"/>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.75" right="0.75" top="0.75" bottom="0.5" header="0.5" footer="0.75"/>
